--- a/scraper/top_remaining_spreadsheets_states/top_remaining_CA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_CA.xlsx
@@ -44,7 +44,7 @@
     <t>YEAR OF THE PIG</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>$WEET CA$H</t>
@@ -68,15 +68,15 @@
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t>MONOPOLY</t>
+  </si>
+  <si>
+    <t>IT TAKES 2</t>
+  </si>
+  <si>
     <t>AMAZING ACES</t>
   </si>
   <si>
-    <t>MONOPOLY</t>
-  </si>
-  <si>
-    <t>IT TAKES 2</t>
-  </si>
-  <si>
     <t>ROCKIN' 7'S</t>
   </si>
   <si>
@@ -116,27 +116,27 @@
     <t>JOKER'S WILD POKER</t>
   </si>
   <si>
+    <t>20X THE CASH</t>
+  </si>
+  <si>
+    <t>CROSSWORD CONNECT</t>
+  </si>
+  <si>
     <t>MEGA CROSSWORD</t>
   </si>
   <si>
-    <t>20X THE CASH</t>
-  </si>
-  <si>
-    <t>CROSSWORD CONNECT</t>
-  </si>
-  <si>
     <t>ROAD TO RICHES</t>
   </si>
   <si>
     <t>I HEART THE BENS</t>
   </si>
   <si>
+    <t>$59M PRIZE POOL</t>
+  </si>
+  <si>
     <t>SILVER RICHES</t>
   </si>
   <si>
-    <t>$59M PRIZE POOL</t>
-  </si>
-  <si>
     <t>RED HOT CROSSWORD</t>
   </si>
   <si>
@@ -182,10 +182,10 @@
     <t>$5,000,000 Spectacular</t>
   </si>
   <si>
+    <t>JACKPOT FORTUNE</t>
+  </si>
+  <si>
     <t>TRIPLE JACKPOT</t>
-  </si>
-  <si>
-    <t>JACKPOT FORTUNE</t>
   </si>
   <si>
     <t>$30.00 Games</t>
@@ -578,7 +578,7 @@
         <v>1339</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -598,7 +598,7 @@
         <v>1343</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -695,10 +695,10 @@
         <v>17</v>
       </c>
       <c r="D8">
-        <v>1330</v>
+        <v>1348</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -715,10 +715,10 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>1348</v>
+        <v>1340</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -735,10 +735,10 @@
         <v>19</v>
       </c>
       <c r="D10">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -878,7 +878,7 @@
         <v>1344</v>
       </c>
       <c r="E17">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -958,7 +958,7 @@
         <v>1332</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -978,7 +978,7 @@
         <v>1324</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -995,7 +995,7 @@
         <v>33</v>
       </c>
       <c r="D23">
-        <v>1308</v>
+        <v>1315</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1015,10 +1015,10 @@
         <v>34</v>
       </c>
       <c r="D24">
-        <v>1315</v>
+        <v>1341</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1035,10 +1035,10 @@
         <v>35</v>
       </c>
       <c r="D25">
-        <v>1341</v>
+        <v>1308</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1052,13 +1052,13 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>1311</v>
+        <v>1349</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1072,13 +1072,13 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>1349</v>
+        <v>1311</v>
       </c>
       <c r="E27">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1115,10 +1115,10 @@
         <v>38</v>
       </c>
       <c r="D29">
-        <v>1336</v>
+        <v>1328</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1135,10 +1135,10 @@
         <v>39</v>
       </c>
       <c r="D30">
-        <v>1328</v>
+        <v>1336</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1252,13 +1252,13 @@
         <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36">
         <v>1350</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1278,7 +1278,7 @@
         <v>1329</v>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1298,7 +1298,7 @@
         <v>1333</v>
       </c>
       <c r="E38">
-        <v>51202</v>
+        <v>45744</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1412,13 +1412,13 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D44">
-        <v>1351</v>
+        <v>1304</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1432,13 +1432,13 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>1304</v>
+        <v>1351</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1455,13 +1455,13 @@
         <v>55</v>
       </c>
       <c r="D46">
-        <v>1300</v>
+        <v>1338</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1475,13 +1475,13 @@
         <v>56</v>
       </c>
       <c r="D47">
-        <v>1338</v>
+        <v>1300</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:6">

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_CA.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_CA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>STATE</t>
   </si>
@@ -44,33 +44,30 @@
     <t>YEAR OF THE PIG</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>SUPER 8'S</t>
   </si>
   <si>
     <t>$WEET CA$H</t>
   </si>
   <si>
-    <t>SUPER 8'S</t>
-  </si>
-  <si>
     <t>THE PERFECT GIFT!</t>
   </si>
   <si>
     <t>WILD 9'S</t>
   </si>
   <si>
-    <t>DIA DE LOS MUERTOS®</t>
-  </si>
-  <si>
-    <t>2019-02-19</t>
-  </si>
-  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
     <t>MONOPOLY</t>
   </si>
   <si>
+    <t>MONEY BAGS</t>
+  </si>
+  <si>
     <t>IT TAKES 2</t>
   </si>
   <si>
@@ -80,67 +77,67 @@
     <t>ROCKIN' 7'S</t>
   </si>
   <si>
-    <t>10X THE CASH</t>
-  </si>
-  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
+    <t>5X CROSSWORDBONUS MATCH</t>
+  </si>
+  <si>
     <t>TRIPLING BONUS CROSSWORD</t>
   </si>
   <si>
-    <t>5X CROSSWORDBONUS MATCH</t>
-  </si>
-  <si>
     <t>FAST PLAY BINGO</t>
   </si>
   <si>
+    <t>LOTERIA™</t>
+  </si>
+  <si>
+    <t>ANCIENT RICHES</t>
+  </si>
+  <si>
+    <t>WINNER WONDERLAND®</t>
+  </si>
+  <si>
     <t>DOMINOES</t>
   </si>
   <si>
-    <t>LOTERIA™</t>
-  </si>
-  <si>
-    <t>WINNER WONDERLAND®</t>
-  </si>
-  <si>
-    <t>WINNING LINEUP</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
+    <t>JOKER'S WILD POKER</t>
+  </si>
+  <si>
     <t>TRIPLE 777</t>
   </si>
   <si>
-    <t>JOKER'S WILD POKER</t>
+    <t>CROSSWORD CONNECT</t>
   </si>
   <si>
     <t>20X THE CASH</t>
   </si>
   <si>
-    <t>CROSSWORD CONNECT</t>
+    <t>ROAD TO RICHES</t>
   </si>
   <si>
     <t>MEGA CROSSWORD</t>
   </si>
   <si>
-    <t>ROAD TO RICHES</t>
-  </si>
-  <si>
     <t>I HEART THE BENS</t>
   </si>
   <si>
     <t>$59M PRIZE POOL</t>
   </si>
   <si>
+    <t>LUCKY LOOT</t>
+  </si>
+  <si>
     <t>SILVER RICHES</t>
   </si>
   <si>
     <t>RED HOT CROSSWORD</t>
   </si>
   <si>
-    <t>LUCKY LOOT</t>
+    <t>2019-04-08</t>
   </si>
   <si>
     <t>$10.00 Games</t>
@@ -149,18 +146,21 @@
     <t>50X THE CASH</t>
   </si>
   <si>
+    <t>CA$H WANTED</t>
+  </si>
+  <si>
+    <t>MYSTERY CROSSWORD</t>
+  </si>
+  <si>
+    <t>$50 OR $100!</t>
+  </si>
+  <si>
+    <t>PRECIOUS JEWELS</t>
+  </si>
+  <si>
     <t>Xtreme Multiplier</t>
   </si>
   <si>
-    <t>CA$H WANTED</t>
-  </si>
-  <si>
-    <t>MYSTERY CROSSWORD</t>
-  </si>
-  <si>
-    <t>$50 OR $100!</t>
-  </si>
-  <si>
     <t>HOLIDAY SPARKLE</t>
   </si>
   <si>
@@ -185,16 +185,13 @@
     <t>JACKPOT FORTUNE</t>
   </si>
   <si>
-    <t>TRIPLE JACKPOT</t>
-  </si>
-  <si>
     <t>$30.00 Games</t>
   </si>
   <si>
+    <t>BONUS PLAY MILLIONS</t>
+  </si>
+  <si>
     <t>$10 MILLION DAZZLER</t>
-  </si>
-  <si>
-    <t>BONUS PLAY MILLIONS</t>
   </si>
   <si>
     <t>CALIFORNIA MILLIONS</t>
@@ -536,7 +533,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +575,7 @@
         <v>1339</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -595,10 +592,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>1343</v>
+        <v>1301</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -615,10 +612,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1301</v>
+        <v>1343</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -669,19 +666,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>1326</v>
+        <v>1348</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -689,16 +686,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
       <c r="D8">
-        <v>1348</v>
+        <v>1352</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -709,16 +706,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>1340</v>
       </c>
       <c r="E9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -729,16 +726,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>1330</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -749,10 +746,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>1322</v>
@@ -769,19 +766,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12">
-        <v>1314</v>
+        <v>1331</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -789,16 +786,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
       </c>
       <c r="D13">
         <v>1319</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -809,16 +806,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -829,16 +826,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>1323</v>
+        <v>1344</v>
       </c>
       <c r="E15">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -849,16 +846,16 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>1353</v>
+      </c>
+      <c r="E16">
         <v>26</v>
-      </c>
-      <c r="D16">
-        <v>1327</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -869,16 +866,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="E17">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -889,16 +886,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -909,19 +906,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>1302</v>
+        <v>1324</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -929,19 +926,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>1306</v>
+        <v>1332</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -949,16 +946,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>1332</v>
+        <v>1349</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -969,16 +966,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>1324</v>
+        <v>1341</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -989,16 +986,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>1315</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1009,16 +1006,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>1341</v>
+        <v>1311</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1029,16 +1026,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>1308</v>
+        <v>1354</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1049,16 +1046,16 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="E26">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1069,16 +1066,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
       </c>
       <c r="D27">
-        <v>1311</v>
+        <v>1328</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1089,16 +1086,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
       </c>
       <c r="D28">
-        <v>1345</v>
+        <v>1320</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1109,13 +1106,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
       </c>
       <c r="D29">
-        <v>1328</v>
+        <v>1336</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1129,16 +1126,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
       <c r="D30">
-        <v>1336</v>
+        <v>1303</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1149,19 +1146,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>1308</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
         <v>40</v>
-      </c>
-      <c r="D31">
-        <v>1303</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1169,16 +1166,16 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1189,16 +1186,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>43</v>
       </c>
       <c r="D33">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1209,13 +1206,13 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
       <c r="D34">
-        <v>1346</v>
+        <v>1329</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -1229,16 +1226,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
         <v>45</v>
       </c>
       <c r="D35">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>26244</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1249,16 +1246,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D36">
-        <v>1350</v>
+        <v>1355</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1269,13 +1266,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D37">
-        <v>1329</v>
+        <v>1346</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -1289,16 +1286,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D38">
-        <v>1333</v>
+        <v>1337</v>
       </c>
       <c r="E38">
-        <v>45744</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1309,16 +1306,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D39">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1378,7 +1375,7 @@
         <v>1347</v>
       </c>
       <c r="E42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1432,7 +1429,7 @@
         <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <v>1351</v>
@@ -1469,19 +1466,19 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>1300</v>
+        <v>1313</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1489,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>58</v>
@@ -1509,38 +1506,18 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
         <v>59</v>
       </c>
       <c r="D49">
-        <v>1313</v>
+        <v>1342</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50">
-        <v>1342</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s">
         <v>9</v>
       </c>
     </row>
